--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arauj\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arauj\OneDrive\Documents\proyectos\CANNON-DCM\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81EF358-68D5-490B-9C0F-D5DF60AA7D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4C9AB4-B4BB-4A4F-8715-A324B3FE51A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88742680-4B27-498F-839A-F7FA2E3522EA}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Título</t>
   </si>
@@ -69,42 +69,6 @@
     <t>FACTURA</t>
   </si>
   <si>
-    <t>1 de 2</t>
-  </si>
-  <si>
-    <t>2 de 2</t>
-  </si>
-  <si>
-    <t>MSC</t>
-  </si>
-  <si>
-    <t>Despacho Septiembre</t>
-  </si>
-  <si>
-    <t>Despacho Octubre</t>
-  </si>
-  <si>
-    <t>1 de 4</t>
-  </si>
-  <si>
-    <t>2 de 4</t>
-  </si>
-  <si>
-    <t>3 de 4</t>
-  </si>
-  <si>
-    <t>4 de 4</t>
-  </si>
-  <si>
-    <t>Despacho Agosto</t>
-  </si>
-  <si>
-    <t>Fazal</t>
-  </si>
-  <si>
-    <t>12/1 SOL</t>
-  </si>
-  <si>
     <t>Despacho</t>
   </si>
   <si>
@@ -115,81 +79,6 @@
   </si>
   <si>
     <t>Dias de transito</t>
-  </si>
-  <si>
-    <t>FCML/10898</t>
-  </si>
-  <si>
-    <t>MSBU5309870</t>
-  </si>
-  <si>
-    <t>F/19256</t>
-  </si>
-  <si>
-    <t>MSDU5355261</t>
-  </si>
-  <si>
-    <t>F/19258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FCML/10898 </t>
-  </si>
-  <si>
-    <t>MSMU5349630</t>
-  </si>
-  <si>
-    <t>F/19305</t>
-  </si>
-  <si>
-    <t>MSMU4469651</t>
-  </si>
-  <si>
-    <t>F/19315</t>
-  </si>
-  <si>
-    <t>FCML/10910</t>
-  </si>
-  <si>
-    <t>FFAU3767750</t>
-  </si>
-  <si>
-    <t>F/19319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FCML/10910 </t>
-  </si>
-  <si>
-    <t>Despacho Noviembre</t>
-  </si>
-  <si>
-    <t>CAIU4682050</t>
-  </si>
-  <si>
-    <t>F/19325</t>
-  </si>
-  <si>
-    <t>FCML/10928</t>
-  </si>
-  <si>
-    <t>MSBU7364769</t>
-  </si>
-  <si>
-    <t>F/19331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FCML/10928 </t>
-  </si>
-  <si>
-    <t>CAIU9908259</t>
-  </si>
-  <si>
-    <t>F/19332</t>
-  </si>
-  <si>
-    <t>CAIU8843425</t>
-  </si>
-  <si>
-    <t>F/19346</t>
   </si>
 </sst>
 </file>
@@ -252,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -288,21 +177,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -335,15 +215,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -658,7 +529,7 @@
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C61" sqref="C61"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -698,7 +569,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>3</v>
@@ -719,373 +590,76 @@
         <v>8</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="15">
-        <v>45992</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="5">
-        <v>45914</v>
-      </c>
-      <c r="M2" s="5">
-        <v>45992</v>
-      </c>
-      <c r="N2" s="3">
-        <v>78</v>
-      </c>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="15">
-        <v>46010</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="5">
-        <v>45946</v>
-      </c>
-      <c r="M3" s="5">
-        <v>46010</v>
-      </c>
-      <c r="N3" s="3">
-        <v>64</v>
-      </c>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="15">
-        <v>46010</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="5">
-        <v>45946</v>
-      </c>
-      <c r="M4" s="5">
-        <v>46010</v>
-      </c>
-      <c r="N4" s="3">
-        <v>64</v>
-      </c>
+    </row>
+    <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="K4" s="3"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="15">
-        <v>46021</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="5">
-        <v>45960</v>
-      </c>
-      <c r="M5" s="5">
-        <v>46021</v>
-      </c>
-      <c r="N5" s="3">
-        <v>61</v>
-      </c>
+    <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="K5" s="3"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="15">
-        <v>46021</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="5">
-        <v>45960</v>
-      </c>
-      <c r="M6" s="5">
-        <v>46021</v>
-      </c>
-      <c r="N6" s="3">
-        <v>61</v>
-      </c>
+    <row r="6" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="K6" s="3"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="15">
-        <v>46042</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="5">
-        <v>45970</v>
-      </c>
-      <c r="M7" s="5">
-        <v>46042</v>
-      </c>
-      <c r="N7" s="3">
-        <v>72</v>
-      </c>
+    <row r="7" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="15">
-        <v>46042</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="5">
-        <v>45985</v>
-      </c>
-      <c r="M8" s="5">
-        <v>46042</v>
-      </c>
-      <c r="N8" s="3">
-        <v>57</v>
-      </c>
+    <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="K8" s="3"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="15">
-        <v>46042</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9"/>
-      <c r="J9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="5">
-        <v>45985</v>
-      </c>
-      <c r="M9" s="5">
-        <v>46042</v>
-      </c>
-      <c r="N9" s="3">
-        <v>57</v>
-      </c>
+    <row r="9" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="K9" s="3"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="15">
-        <v>46050</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10"/>
-      <c r="J10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="5">
-        <v>45990</v>
-      </c>
-      <c r="M10" s="5">
-        <v>46050</v>
-      </c>
-      <c r="N10" s="3">
-        <v>60</v>
-      </c>
+    <row r="10" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="K10" s="3"/>
       <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">

--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arauj\OneDrive\Documents\proyectos\CANNON-DCM\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4C9AB4-B4BB-4A4F-8715-A324B3FE51A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843D50E6-7A17-4EFC-AD6B-217F36E259A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88742680-4B27-498F-839A-F7FA2E3522EA}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -105,18 +105,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -178,11 +166,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -194,9 +181,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -217,8 +201,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -524,12 +507,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:W138"/>
+  <dimension ref="B1:W139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C61" sqref="C61"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -540,11 +523,11 @@
     <col min="4" max="4" width="38.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="6" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="29.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="3" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="5" customWidth="1"/>
     <col min="12" max="12" width="13" style="3" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.140625" style="3" bestFit="1" customWidth="1"/>
@@ -558,7 +541,7 @@
     <col min="24" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,10 +554,10 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -583,226 +566,203 @@
       <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D2" s="3"/>
       <c r="G2" s="3"/>
       <c r="I2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="3"/>
       <c r="G3" s="3"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="3"/>
       <c r="G4" s="3"/>
       <c r="I4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="Q4" s="7"/>
-    </row>
-    <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="3"/>
       <c r="G5" s="3"/>
       <c r="I5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="Q5" s="7"/>
-    </row>
-    <row r="6" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="3"/>
       <c r="G6" s="3"/>
       <c r="I6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="Q6" s="7"/>
-    </row>
-    <row r="7" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="3"/>
       <c r="G7" s="3"/>
       <c r="I7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="Q7" s="7"/>
-    </row>
-    <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="3"/>
       <c r="G8" s="3"/>
       <c r="I8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="Q8" s="7"/>
-    </row>
-    <row r="9" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="3"/>
       <c r="G9" s="3"/>
       <c r="I9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="Q9" s="7"/>
-    </row>
-    <row r="10" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="3"/>
       <c r="G10" s="3"/>
       <c r="I10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="Q10" s="7"/>
-    </row>
-    <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="3"/>
       <c r="G11" s="3"/>
       <c r="I11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="Q11" s="7"/>
-    </row>
-    <row r="12" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" s="3"/>
       <c r="G12" s="3"/>
       <c r="I12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="Q12" s="7"/>
-    </row>
-    <row r="13" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D13" s="3"/>
       <c r="G13" s="3"/>
       <c r="I13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="Q13" s="7"/>
-    </row>
-    <row r="14" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D14" s="3"/>
       <c r="G14" s="3"/>
       <c r="I14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="Q14" s="7"/>
-    </row>
-    <row r="15" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="3"/>
       <c r="G15" s="3"/>
       <c r="I15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="Q15" s="7"/>
-    </row>
-    <row r="16" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="G16" s="3"/>
       <c r="I16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="Q16" s="7"/>
-    </row>
-    <row r="17" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" s="3"/>
       <c r="G17" s="3"/>
       <c r="I17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="Q17" s="7"/>
-    </row>
-    <row r="18" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="3"/>
       <c r="G18" s="3"/>
       <c r="I18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="Q18" s="7"/>
-    </row>
-    <row r="19" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" s="3"/>
       <c r="G19" s="3"/>
       <c r="I19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="Q19" s="7"/>
-    </row>
-    <row r="20" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="3"/>
       <c r="G20" s="3"/>
       <c r="I20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="Q20" s="7"/>
-    </row>
-    <row r="21" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="3"/>
       <c r="G21" s="3"/>
       <c r="I21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="Q21" s="7"/>
-    </row>
-    <row r="22" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" s="3"/>
       <c r="G22" s="3"/>
       <c r="I22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="Q22" s="7"/>
-    </row>
-    <row r="23" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="3"/>
       <c r="G23" s="3"/>
       <c r="I23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="P23" s="5"/>
-    </row>
-    <row r="24" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="3"/>
       <c r="G24" s="3"/>
       <c r="I24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="3"/>
       <c r="G25" s="3"/>
       <c r="I25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="3"/>
       <c r="G26" s="3"/>
       <c r="I26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D27" s="3"/>
       <c r="G27" s="3"/>
       <c r="I27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" s="3"/>
       <c r="G28" s="3"/>
       <c r="I28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D29" s="3"/>
       <c r="G29" s="3"/>
       <c r="I29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="3"/>
       <c r="G30" s="3"/>
       <c r="I30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D31" s="3"/>
       <c r="G31" s="3"/>
       <c r="I31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D32" s="3"/>
       <c r="G32" s="3"/>
       <c r="I32" s="3"/>
@@ -1096,101 +1056,97 @@
       <c r="I80" s="3"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D81" s="3"/>
       <c r="G81" s="3"/>
       <c r="I81" s="3"/>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D82" s="3"/>
       <c r="G82" s="3"/>
       <c r="I82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D83" s="3"/>
       <c r="G83" s="3"/>
       <c r="I83" s="3"/>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D84" s="3"/>
       <c r="G84" s="3"/>
       <c r="I84" s="3"/>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D85" s="3"/>
       <c r="G85" s="3"/>
       <c r="I85" s="3"/>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D86" s="3"/>
       <c r="G86" s="3"/>
       <c r="I86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D87" s="3"/>
       <c r="G87" s="3"/>
       <c r="I87" s="3"/>
       <c r="K87" s="3"/>
-      <c r="O87" s="3">
-        <f>13*3</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="88" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D88" s="3"/>
       <c r="G88" s="3"/>
       <c r="I88" s="3"/>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D89" s="3"/>
       <c r="G89" s="3"/>
       <c r="I89" s="3"/>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D90" s="3"/>
       <c r="G90" s="3"/>
       <c r="I90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D91" s="3"/>
       <c r="G91" s="3"/>
       <c r="I91" s="3"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D92" s="3"/>
       <c r="G92" s="3"/>
       <c r="I92" s="3"/>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D93" s="3"/>
       <c r="G93" s="3"/>
       <c r="I93" s="3"/>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D94" s="3"/>
       <c r="G94" s="3"/>
       <c r="I94" s="3"/>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D95" s="3"/>
       <c r="G95" s="3"/>
       <c r="I95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D96" s="3"/>
       <c r="G96" s="3"/>
       <c r="I96" s="3"/>
@@ -1447,6 +1403,12 @@
       <c r="G138" s="3"/>
       <c r="I138" s="3"/>
       <c r="K138" s="3"/>
+    </row>
+    <row r="139" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="K139" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:U138" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
